--- a/output/Leyndell, Royal Capital.xlsx
+++ b/output/Leyndell, Royal Capital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Leyndell</t>
+          <t>Ashen Leyndell</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vanilla major key item locations</t>
+          <t>Major bosses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Given by Melina after defeating Morgott. Replaces Rold Medallion</t>
+          <t>Dropped by Hoarah Loux. Replaces Remembrance of Hoarah Loux</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Major bosses</t>
+          <t>Vanilla major key item locations</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dropped by Morgott the Omen King. Replaces Morgott's Great Rune, Remembrance of the Omen King</t>
+          <t>Given by Melina after defeating Morgott. Replaces Rold Medallion</t>
         </is>
       </c>
     </row>
@@ -497,22 +497,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dropped by Godfrey, First Elden Lord, in the Erdtree Sanctuary. Replaces Talisman Pouch</t>
+          <t>Dropped by Morgott the Omen King. Replaces Morgott's Great Rune, Remembrance of the Omen King</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Leyndell</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Major bosses</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dropped by Godfrey, First Elden Lord, in the Erdtree Sanctuary. Replaces Talisman Pouch</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Subterranean Shunning-Grounds</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Major bosses</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Dropped by Mohg the Omen. Replaces Bloodflame Talons</t>
         </is>
